--- a/Figure 1 Raw Data.xlsx
+++ b/Figure 1 Raw Data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernandezlab/Desktop/Cyc Manuscript/Raw Data for Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08783B36-519A-6748-B305-5362D6569C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A089571-821B-FC41-8975-41617472F1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27460" windowHeight="26500" xr2:uid="{285D38CD-6E7E-4D4F-A20C-CB268417A022}"/>
+    <workbookView xWindow="9980" yWindow="500" windowWidth="42800" windowHeight="26500" xr2:uid="{285D38CD-6E7E-4D4F-A20C-CB268417A022}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="41">
   <si>
     <t>Genotype</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>#004</t>
-  </si>
-  <si>
-    <t>1E-H</t>
   </si>
   <si>
     <t>Length Until Branching Point (BP) (µm) - Figure 1E</t>
@@ -148,12 +145,51 @@
       <t xml:space="preserve"> downregulation in circadian pacemaker neurons prevents the formation of sLNvs axon bundles. </t>
     </r>
   </si>
+  <si>
+    <t>1G-J</t>
+  </si>
+  <si>
+    <t>1C-F</t>
+  </si>
+  <si>
+    <t>;Pdf-Red;MKRS/+</t>
+  </si>
+  <si>
+    <t>#117</t>
+  </si>
+  <si>
+    <t>RFP</t>
+  </si>
+  <si>
+    <t>Length Until Branching Point (BP) (µm) - Figure 1C</t>
+  </si>
+  <si>
+    <t>sLNv Defasciculation - Figure 1D</t>
+  </si>
+  <si>
+    <t>Total Projection Length (µm) - Figure 1E</t>
+  </si>
+  <si>
+    <t>lLNv Defasciculation - Figure 1F</t>
+  </si>
+  <si>
+    <t>#129</t>
+  </si>
+  <si>
+    <t>cyc01</t>
+  </si>
+  <si>
+    <t>#119</t>
+  </si>
+  <si>
+    <t>#130</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -189,6 +225,12 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -393,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -424,6 +466,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53E8E0E-9CB6-514E-BA0F-356B21DE8AE4}">
-  <dimension ref="B2:M70"/>
+  <dimension ref="B2:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G4"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -757,7 +806,7 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -797,21 +846,21 @@
         <v>5</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="29" t="s">
         <v>19</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -1200,7 +1249,7 @@
       <c r="C17" s="9"/>
       <c r="E17" s="7"/>
       <c r="F17" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" s="17">
         <v>1</v>
@@ -1229,7 +1278,7 @@
       <c r="C18" s="9"/>
       <c r="E18" s="7"/>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" s="5">
         <v>3</v>
@@ -1258,7 +1307,7 @@
       <c r="C19" s="9"/>
       <c r="E19" s="7"/>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19" s="5">
         <v>4</v>
@@ -1287,7 +1336,7 @@
       <c r="C20" s="9"/>
       <c r="E20" s="7"/>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20" s="5">
         <v>5</v>
@@ -1316,7 +1365,7 @@
       <c r="C21" s="9"/>
       <c r="E21" s="7"/>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21" s="5">
         <v>6</v>
@@ -1345,7 +1394,7 @@
       <c r="C22" s="9"/>
       <c r="E22" s="7"/>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G22" s="5">
         <v>8</v>
@@ -1375,7 +1424,7 @@
       <c r="D23" s="12"/>
       <c r="E23" s="13"/>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G23" s="5">
         <v>9</v>
@@ -1401,10 +1450,10 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
@@ -1413,7 +1462,7 @@
         <v>20</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G24" s="4">
         <v>1</v>
@@ -1441,7 +1490,7 @@
       <c r="B25" s="8"/>
       <c r="E25" s="7"/>
       <c r="F25" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G25" s="5">
         <v>2</v>
@@ -1469,7 +1518,7 @@
       <c r="B26" s="8"/>
       <c r="E26" s="7"/>
       <c r="F26" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G26" s="5">
         <v>3</v>
@@ -1497,7 +1546,7 @@
       <c r="B27" s="8"/>
       <c r="E27" s="7"/>
       <c r="F27" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G27" s="5">
         <v>5</v>
@@ -1525,7 +1574,7 @@
       <c r="B28" s="8"/>
       <c r="E28" s="7"/>
       <c r="F28" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G28" s="5">
         <v>7</v>
@@ -1553,7 +1602,7 @@
       <c r="B29" s="8"/>
       <c r="E29" s="7"/>
       <c r="F29" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G29" s="5">
         <v>8</v>
@@ -1581,7 +1630,7 @@
       <c r="B30" s="8"/>
       <c r="E30" s="7"/>
       <c r="F30" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G30" s="5">
         <v>9</v>
@@ -1609,7 +1658,7 @@
       <c r="B31" s="8"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G31" s="5">
         <v>10</v>
@@ -1637,7 +1686,7 @@
       <c r="B32" s="8"/>
       <c r="E32" s="7"/>
       <c r="F32" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G32" s="5">
         <v>11</v>
@@ -1665,7 +1714,7 @@
       <c r="B33" s="8"/>
       <c r="E33" s="7"/>
       <c r="F33" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G33" s="5">
         <v>12</v>
@@ -1693,7 +1742,7 @@
       <c r="B34" s="8"/>
       <c r="E34" s="7"/>
       <c r="F34" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G34" s="17">
         <v>2</v>
@@ -1721,7 +1770,7 @@
       <c r="B35" s="8"/>
       <c r="E35" s="7"/>
       <c r="F35" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G35" s="5">
         <v>4</v>
@@ -1749,7 +1798,7 @@
       <c r="B36" s="8"/>
       <c r="E36" s="7"/>
       <c r="F36" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G36" s="15">
         <v>5</v>
@@ -1777,7 +1826,7 @@
       <c r="B37" s="8"/>
       <c r="E37" s="7"/>
       <c r="F37" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1805,7 +1854,7 @@
       <c r="B38" s="8"/>
       <c r="E38" s="7"/>
       <c r="F38" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -1833,7 +1882,7 @@
       <c r="B39" s="8"/>
       <c r="E39" s="7"/>
       <c r="F39" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -1861,7 +1910,7 @@
       <c r="B40" s="8"/>
       <c r="E40" s="7"/>
       <c r="F40" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -1889,7 +1938,7 @@
       <c r="B41" s="8"/>
       <c r="E41" s="7"/>
       <c r="F41" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G41">
         <v>6</v>
@@ -1917,7 +1966,7 @@
       <c r="B42" s="8"/>
       <c r="E42" s="7"/>
       <c r="F42" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -1947,7 +1996,7 @@
       <c r="D43" s="12"/>
       <c r="E43" s="13"/>
       <c r="F43" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G43" s="12">
         <v>8</v>
@@ -1973,10 +2022,10 @@
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
@@ -1985,7 +2034,7 @@
         <v>27</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G44" s="4">
         <v>1</v>
@@ -2013,7 +2062,7 @@
       <c r="B45" s="8"/>
       <c r="E45" s="7"/>
       <c r="F45" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G45" s="5">
         <v>2</v>
@@ -2041,7 +2090,7 @@
       <c r="B46" s="8"/>
       <c r="E46" s="7"/>
       <c r="F46" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G46" s="5">
         <v>3</v>
@@ -2069,7 +2118,7 @@
       <c r="B47" s="8"/>
       <c r="E47" s="7"/>
       <c r="F47" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G47" s="5">
         <v>4</v>
@@ -2097,7 +2146,7 @@
       <c r="B48" s="8"/>
       <c r="E48" s="7"/>
       <c r="F48" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G48" s="5">
         <v>5</v>
@@ -2125,7 +2174,7 @@
       <c r="B49" s="8"/>
       <c r="E49" s="7"/>
       <c r="F49" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G49" s="5">
         <v>7</v>
@@ -2153,7 +2202,7 @@
       <c r="B50" s="8"/>
       <c r="E50" s="7"/>
       <c r="F50" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G50" s="5">
         <v>8</v>
@@ -2181,7 +2230,7 @@
       <c r="B51" s="8"/>
       <c r="E51" s="7"/>
       <c r="F51" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G51" s="5">
         <v>9</v>
@@ -2209,7 +2258,7 @@
       <c r="B52" s="8"/>
       <c r="E52" s="7"/>
       <c r="F52" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G52" s="5">
         <v>10</v>
@@ -2237,7 +2286,7 @@
       <c r="B53" s="8"/>
       <c r="E53" s="7"/>
       <c r="F53" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G53" s="5">
         <v>11</v>
@@ -2265,7 +2314,7 @@
       <c r="B54" s="8"/>
       <c r="E54" s="7"/>
       <c r="F54" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G54" s="17">
         <v>1</v>
@@ -2293,7 +2342,7 @@
       <c r="B55" s="8"/>
       <c r="E55" s="7"/>
       <c r="F55" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G55" s="5">
         <v>2</v>
@@ -2321,7 +2370,7 @@
       <c r="B56" s="8"/>
       <c r="E56" s="7"/>
       <c r="F56" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G56" s="5">
         <v>3</v>
@@ -2349,7 +2398,7 @@
       <c r="B57" s="8"/>
       <c r="E57" s="7"/>
       <c r="F57" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G57" s="5">
         <v>4</v>
@@ -2377,7 +2426,7 @@
       <c r="B58" s="8"/>
       <c r="E58" s="7"/>
       <c r="F58" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G58" s="5">
         <v>6</v>
@@ -2405,7 +2454,7 @@
       <c r="B59" s="8"/>
       <c r="E59" s="7"/>
       <c r="F59" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G59" s="15">
         <v>7</v>
@@ -2433,7 +2482,7 @@
       <c r="B60" s="8"/>
       <c r="E60" s="7"/>
       <c r="F60" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -2461,7 +2510,7 @@
       <c r="B61" s="8"/>
       <c r="E61" s="7"/>
       <c r="F61" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -2489,7 +2538,7 @@
       <c r="B62" s="8"/>
       <c r="E62" s="7"/>
       <c r="F62" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G62">
         <v>4</v>
@@ -2517,7 +2566,7 @@
       <c r="B63" s="8"/>
       <c r="E63" s="7"/>
       <c r="F63" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G63">
         <v>5</v>
@@ -2545,7 +2594,7 @@
       <c r="B64" s="8"/>
       <c r="E64" s="7"/>
       <c r="F64" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G64">
         <v>6</v>
@@ -2573,7 +2622,7 @@
       <c r="B65" s="8"/>
       <c r="E65" s="7"/>
       <c r="F65" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G65">
         <v>8</v>
@@ -2601,7 +2650,7 @@
       <c r="B66" s="8"/>
       <c r="E66" s="7"/>
       <c r="F66" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G66">
         <v>9</v>
@@ -2629,7 +2678,7 @@
       <c r="B67" s="8"/>
       <c r="E67" s="7"/>
       <c r="F67" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G67">
         <v>10</v>
@@ -2657,7 +2706,7 @@
       <c r="B68" s="8"/>
       <c r="E68" s="7"/>
       <c r="F68" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G68">
         <v>11</v>
@@ -2685,7 +2734,7 @@
       <c r="B69" s="8"/>
       <c r="E69" s="7"/>
       <c r="F69" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G69">
         <v>12</v>
@@ -2715,7 +2764,7 @@
       <c r="D70" s="12"/>
       <c r="E70" s="13"/>
       <c r="F70" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G70" s="12">
         <v>13</v>
@@ -2739,7 +2788,1142 @@
         <v>17</v>
       </c>
     </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B71" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F71" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G71" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H71" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I71" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J71" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="K71" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="L71" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="M71" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B72" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2</v>
+      </c>
+      <c r="E72" s="3">
+        <v>22</v>
+      </c>
+      <c r="F72" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+      <c r="H72" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J72" s="1">
+        <v>182.45</v>
+      </c>
+      <c r="K72" s="1">
+        <v>11</v>
+      </c>
+      <c r="L72" s="1">
+        <v>264.64</v>
+      </c>
+      <c r="M72" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B73" s="8"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" s="32">
+        <v>2</v>
+      </c>
+      <c r="H73" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I73" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J73" s="32">
+        <v>162.34</v>
+      </c>
+      <c r="K73" s="32">
+        <v>13</v>
+      </c>
+      <c r="L73" s="32">
+        <v>237.63</v>
+      </c>
+      <c r="M73" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B74" s="8"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" s="32">
+        <v>3</v>
+      </c>
+      <c r="H74" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I74" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J74" s="32">
+        <v>172.95</v>
+      </c>
+      <c r="K74" s="32">
+        <v>25</v>
+      </c>
+      <c r="L74" s="32">
+        <v>257.60000000000002</v>
+      </c>
+      <c r="M74" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B75" s="8"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" s="32">
+        <v>4</v>
+      </c>
+      <c r="H75" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I75" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J75" s="32">
+        <v>174.78</v>
+      </c>
+      <c r="K75" s="32">
+        <v>12</v>
+      </c>
+      <c r="L75" s="32">
+        <v>254.97</v>
+      </c>
+      <c r="M75" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B76" s="8"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" s="32">
+        <v>5</v>
+      </c>
+      <c r="H76" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I76" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J76" s="32">
+        <v>127.44</v>
+      </c>
+      <c r="K76" s="32">
+        <v>11</v>
+      </c>
+      <c r="L76" s="32">
+        <v>213.93</v>
+      </c>
+      <c r="M76" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B77" s="8"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" s="32">
+        <v>6</v>
+      </c>
+      <c r="H77" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I77" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J77" s="32">
+        <v>161.44999999999999</v>
+      </c>
+      <c r="K77" s="32">
+        <v>11</v>
+      </c>
+      <c r="L77" s="32">
+        <v>287.13</v>
+      </c>
+      <c r="M77" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B78" s="8"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" s="32">
+        <v>7</v>
+      </c>
+      <c r="H78" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I78" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J78" s="32">
+        <v>143.46</v>
+      </c>
+      <c r="K78" s="32">
+        <v>14</v>
+      </c>
+      <c r="L78" s="32">
+        <v>275.91000000000003</v>
+      </c>
+      <c r="M78" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B79" s="8"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="32">
+        <v>8</v>
+      </c>
+      <c r="H79" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I79" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J79" s="32">
+        <v>150.80000000000001</v>
+      </c>
+      <c r="K79" s="32">
+        <v>16</v>
+      </c>
+      <c r="L79" s="32">
+        <v>208.06</v>
+      </c>
+      <c r="M79" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B80" s="8"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80" s="32">
+        <v>9</v>
+      </c>
+      <c r="H80" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I80" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J80" s="32">
+        <v>124.78</v>
+      </c>
+      <c r="K80" s="32">
+        <v>13</v>
+      </c>
+      <c r="L80" s="32">
+        <v>199</v>
+      </c>
+      <c r="M80" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B81" s="8"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" s="32">
+        <v>10</v>
+      </c>
+      <c r="H81" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J81" s="32">
+        <v>129.4</v>
+      </c>
+      <c r="K81" s="32">
+        <v>19</v>
+      </c>
+      <c r="L81" s="32">
+        <v>210.66</v>
+      </c>
+      <c r="M81" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B82" s="8"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G82" s="32">
+        <v>11</v>
+      </c>
+      <c r="H82" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I82" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J82" s="32">
+        <v>141.82</v>
+      </c>
+      <c r="K82" s="32">
+        <v>22</v>
+      </c>
+      <c r="L82" s="32">
+        <v>207.25</v>
+      </c>
+      <c r="M82" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B83" s="8"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" s="32">
+        <v>12</v>
+      </c>
+      <c r="H83" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I83" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J83" s="32">
+        <v>131.53</v>
+      </c>
+      <c r="K83" s="32">
+        <v>16</v>
+      </c>
+      <c r="L83" s="32">
+        <v>213</v>
+      </c>
+      <c r="M83" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B84" s="8"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G84" s="32">
+        <v>13</v>
+      </c>
+      <c r="H84" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I84" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J84" s="32">
+        <v>88.86</v>
+      </c>
+      <c r="K84" s="32">
+        <v>20</v>
+      </c>
+      <c r="L84" s="32">
+        <v>182.26</v>
+      </c>
+      <c r="M84" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B85" s="8"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G85" s="32">
+        <v>14</v>
+      </c>
+      <c r="H85" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I85" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J85" s="32">
+        <v>132.79</v>
+      </c>
+      <c r="K85" s="32">
+        <v>14</v>
+      </c>
+      <c r="L85" s="32">
+        <v>197.97</v>
+      </c>
+      <c r="M85" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B86" s="8"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G86" s="17">
+        <v>1</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I86" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J86" s="16">
+        <v>121</v>
+      </c>
+      <c r="K86" s="17">
+        <v>9</v>
+      </c>
+      <c r="L86" s="16">
+        <v>197.08</v>
+      </c>
+      <c r="M86" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B87" s="8"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G87" s="32">
+        <v>2</v>
+      </c>
+      <c r="H87" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I87" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J87" s="32">
+        <v>103.25</v>
+      </c>
+      <c r="K87" s="32">
+        <v>14</v>
+      </c>
+      <c r="L87" s="32">
+        <v>155.36000000000001</v>
+      </c>
+      <c r="M87" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B88" s="8"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G88" s="32">
+        <v>3</v>
+      </c>
+      <c r="H88" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I88" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J88" s="32">
+        <v>116.64</v>
+      </c>
+      <c r="K88" s="32">
+        <v>19</v>
+      </c>
+      <c r="L88" s="32">
+        <v>196.97</v>
+      </c>
+      <c r="M88" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B89" s="8"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G89" s="32">
+        <v>4</v>
+      </c>
+      <c r="H89" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I89" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J89" s="32">
+        <v>123.94</v>
+      </c>
+      <c r="K89" s="32">
+        <v>16</v>
+      </c>
+      <c r="L89" s="32">
+        <v>184.15</v>
+      </c>
+      <c r="M89" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B90" s="8"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G90" s="32">
+        <v>5</v>
+      </c>
+      <c r="H90" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I90" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J90" s="32">
+        <v>131.62</v>
+      </c>
+      <c r="K90" s="32">
+        <v>16</v>
+      </c>
+      <c r="L90" s="32">
+        <v>190.6</v>
+      </c>
+      <c r="M90" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B91" s="8"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G91" s="32">
+        <v>6</v>
+      </c>
+      <c r="H91" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I91" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J91" s="32">
+        <v>143.86000000000001</v>
+      </c>
+      <c r="K91" s="32">
+        <v>17</v>
+      </c>
+      <c r="L91" s="32">
+        <v>197.61</v>
+      </c>
+      <c r="M91" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B92" s="8"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G92" s="32">
+        <v>7</v>
+      </c>
+      <c r="H92" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I92" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J92" s="32">
+        <v>78.22</v>
+      </c>
+      <c r="K92" s="32">
+        <v>15</v>
+      </c>
+      <c r="L92" s="32">
+        <v>133.41999999999999</v>
+      </c>
+      <c r="M92" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B93" s="10"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G93" s="12">
+        <v>8</v>
+      </c>
+      <c r="H93" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J93" s="12">
+        <v>60.33</v>
+      </c>
+      <c r="K93" s="12">
+        <v>22</v>
+      </c>
+      <c r="L93" s="12">
+        <v>215.98</v>
+      </c>
+      <c r="M93" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B94" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D94" s="1">
+        <v>2</v>
+      </c>
+      <c r="E94" s="3">
+        <v>14</v>
+      </c>
+      <c r="F94" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G94" s="34">
+        <v>1</v>
+      </c>
+      <c r="H94" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I94" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J94" s="1">
+        <v>66.91</v>
+      </c>
+      <c r="K94" s="1">
+        <v>39</v>
+      </c>
+      <c r="L94" s="1">
+        <v>218.33</v>
+      </c>
+      <c r="M94" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B95" s="8"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G95" s="31">
+        <v>2</v>
+      </c>
+      <c r="H95" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I95" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J95" s="32">
+        <v>44.79</v>
+      </c>
+      <c r="K95" s="32">
+        <v>36</v>
+      </c>
+      <c r="L95" s="32">
+        <v>262.58999999999997</v>
+      </c>
+      <c r="M95" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B96" s="8"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G96" s="31">
+        <v>3</v>
+      </c>
+      <c r="H96" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I96" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J96" s="32">
+        <v>104.44</v>
+      </c>
+      <c r="K96" s="32">
+        <v>46</v>
+      </c>
+      <c r="L96" s="32">
+        <v>282.83</v>
+      </c>
+      <c r="M96" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B97" s="8"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G97" s="31">
+        <v>4</v>
+      </c>
+      <c r="H97" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I97" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J97" s="32">
+        <v>47.44</v>
+      </c>
+      <c r="K97" s="32">
+        <v>55</v>
+      </c>
+      <c r="L97" s="32">
+        <v>238.94</v>
+      </c>
+      <c r="M97" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B98" s="8"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G98" s="31">
+        <v>6</v>
+      </c>
+      <c r="H98" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I98" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J98" s="32">
+        <v>24.47</v>
+      </c>
+      <c r="K98" s="32">
+        <v>11</v>
+      </c>
+      <c r="L98" s="32">
+        <v>144.02000000000001</v>
+      </c>
+      <c r="M98" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B99" s="8"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G99" s="31">
+        <v>7</v>
+      </c>
+      <c r="H99" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I99" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J99" s="32">
+        <v>68.55</v>
+      </c>
+      <c r="K99" s="32">
+        <v>29</v>
+      </c>
+      <c r="L99" s="32">
+        <v>260.33999999999997</v>
+      </c>
+      <c r="M99" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B100" s="8"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G100" s="31">
+        <v>8</v>
+      </c>
+      <c r="H100" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I100" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J100" s="32">
+        <v>67.25</v>
+      </c>
+      <c r="K100" s="32">
+        <v>24</v>
+      </c>
+      <c r="L100" s="32">
+        <v>262.55</v>
+      </c>
+      <c r="M100" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B101" s="8"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G101" s="17">
+        <v>1</v>
+      </c>
+      <c r="H101" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I101" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J101" s="16">
+        <v>13.55</v>
+      </c>
+      <c r="K101" s="17">
+        <v>28</v>
+      </c>
+      <c r="L101" s="16">
+        <v>217.88</v>
+      </c>
+      <c r="M101" s="21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B102" s="8"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G102" s="31">
+        <v>3</v>
+      </c>
+      <c r="H102" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I102" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J102" s="32">
+        <v>51.34</v>
+      </c>
+      <c r="K102" s="32">
+        <v>17</v>
+      </c>
+      <c r="L102" s="32">
+        <v>149.9</v>
+      </c>
+      <c r="M102" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B103" s="8"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G103" s="31">
+        <v>4</v>
+      </c>
+      <c r="H103" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I103" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J103" s="32">
+        <v>101.33</v>
+      </c>
+      <c r="K103" s="32">
+        <v>23</v>
+      </c>
+      <c r="L103" s="32">
+        <v>182.26</v>
+      </c>
+      <c r="M103" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B104" s="8"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G104" s="31">
+        <v>5</v>
+      </c>
+      <c r="H104" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I104" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J104" s="32">
+        <v>111.29</v>
+      </c>
+      <c r="K104" s="32">
+        <v>14</v>
+      </c>
+      <c r="L104" s="32">
+        <v>168.05</v>
+      </c>
+      <c r="M104" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B105" s="8"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G105" s="31">
+        <v>6</v>
+      </c>
+      <c r="H105" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I105" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J105" s="32">
+        <v>18.22</v>
+      </c>
+      <c r="K105" s="32">
+        <v>22</v>
+      </c>
+      <c r="L105" s="32">
+        <v>164.88</v>
+      </c>
+      <c r="M105" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B106" s="8"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G106" s="31">
+        <v>7</v>
+      </c>
+      <c r="H106" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I106" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J106" s="32">
+        <v>11.47</v>
+      </c>
+      <c r="K106" s="32">
+        <v>41</v>
+      </c>
+      <c r="L106" s="32">
+        <v>220.16</v>
+      </c>
+      <c r="M106" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B107" s="10"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G107" s="36">
+        <v>8</v>
+      </c>
+      <c r="H107" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I107" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J107" s="12">
+        <v>5.41</v>
+      </c>
+      <c r="K107" s="12">
+        <v>8</v>
+      </c>
+      <c r="L107" s="12">
+        <v>76.89</v>
+      </c>
+      <c r="M107" s="13">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>